--- a/SchedulingData/dynamic9/pso/scheduling2_14.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>241.24</v>
+        <v>221.34</v>
       </c>
       <c r="D2" t="n">
-        <v>286.24</v>
+        <v>283.78</v>
       </c>
       <c r="E2" t="n">
-        <v>13.556</v>
+        <v>15.672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>209.4</v>
+        <v>238.68</v>
       </c>
       <c r="D3" t="n">
-        <v>285.2</v>
+        <v>294.64</v>
       </c>
       <c r="E3" t="n">
-        <v>10.68</v>
+        <v>11.176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>275.74</v>
+        <v>215.62</v>
       </c>
       <c r="D4" t="n">
-        <v>318.74</v>
+        <v>275.02</v>
       </c>
       <c r="E4" t="n">
-        <v>12.816</v>
+        <v>10.188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>234.98</v>
+        <v>214.76</v>
       </c>
       <c r="D5" t="n">
-        <v>304.06</v>
+        <v>287.06</v>
       </c>
       <c r="E5" t="n">
-        <v>11.244</v>
+        <v>11.964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>215.84</v>
+        <v>283.78</v>
       </c>
       <c r="D6" t="n">
-        <v>273.44</v>
+        <v>328.26</v>
       </c>
       <c r="E6" t="n">
-        <v>10.356</v>
+        <v>12.864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>286.24</v>
+        <v>257.22</v>
       </c>
       <c r="D7" t="n">
-        <v>339.58</v>
+        <v>327.24</v>
       </c>
       <c r="E7" t="n">
-        <v>10.852</v>
+        <v>12.816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>318.74</v>
+        <v>301.62</v>
       </c>
       <c r="D8" t="n">
-        <v>359.72</v>
+        <v>337.12</v>
       </c>
       <c r="E8" t="n">
-        <v>9.848000000000001</v>
+        <v>11.408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>235.74</v>
+        <v>287.06</v>
       </c>
       <c r="D9" t="n">
-        <v>314.14</v>
+        <v>329.86</v>
       </c>
       <c r="E9" t="n">
-        <v>11.676</v>
+        <v>9.804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>304.06</v>
+        <v>275.02</v>
       </c>
       <c r="D10" t="n">
-        <v>338.02</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
-        <v>8.488</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>273.44</v>
+        <v>327.24</v>
       </c>
       <c r="D11" t="n">
-        <v>318.96</v>
+        <v>365.94</v>
       </c>
       <c r="E11" t="n">
-        <v>7.444</v>
+        <v>10.576</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>285.2</v>
+        <v>329.86</v>
       </c>
       <c r="D12" t="n">
-        <v>347.46</v>
+        <v>378.62</v>
       </c>
       <c r="E12" t="n">
-        <v>7.544</v>
+        <v>7.048</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>314.14</v>
+        <v>316</v>
       </c>
       <c r="D13" t="n">
-        <v>347.94</v>
+        <v>358.22</v>
       </c>
       <c r="E13" t="n">
-        <v>9.436</v>
+        <v>4.628</v>
       </c>
     </row>
     <row r="14">
@@ -694,22 +694,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>338.02</v>
+        <v>294.64</v>
       </c>
       <c r="D14" t="n">
-        <v>380.14</v>
+        <v>334.54</v>
       </c>
       <c r="E14" t="n">
-        <v>5.896</v>
+        <v>8.316000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,51 +717,70 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>347.94</v>
+        <v>365.94</v>
       </c>
       <c r="D15" t="n">
-        <v>409.84</v>
+        <v>427.84</v>
       </c>
       <c r="E15" t="n">
-        <v>6.376</v>
+        <v>7.516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>359.72</v>
+        <v>334.54</v>
       </c>
       <c r="D16" t="n">
-        <v>414.92</v>
+        <v>407.38</v>
       </c>
       <c r="E16" t="n">
-        <v>7.428</v>
+        <v>5.612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>318.96</v>
+        <v>328.26</v>
       </c>
       <c r="D17" t="n">
-        <v>378.86</v>
+        <v>386.92</v>
       </c>
       <c r="E17" t="n">
-        <v>4.584</v>
+        <v>10.128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pond46</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>337.12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>406.72</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.568</v>
       </c>
     </row>
   </sheetData>
